--- a/Parts List.xlsx
+++ b/Parts List.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc71ca45fe18f6f5/PhD Research Work/Research-Notebook/Durr Lab/Projects/ISPEED 2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc71ca45fe18f6f5/PhD Research Work/Research-Notebook/Durr Lab/Projects/ISpeed-Microscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A77140D-E76F-7F44-BC00-0F07EE68FA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{0A77140D-E76F-7F44-BC00-0F07EE68FA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEFC7265-1983-E343-851A-FA49F6DB10D6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CA78304C-44A9-7C49-A53A-AFC983C212BD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{CA78304C-44A9-7C49-A53A-AFC983C212BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>iSPEED Parts List</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Raspberry Pi 4 Model B 2GB RAM</t>
-  </si>
-  <si>
     <t>Power Supply</t>
   </si>
   <si>
@@ -81,13 +78,61 @@
   </si>
   <si>
     <t>https://www.amazon.com/Koolertron-Extended-Microscope-Adjustable-Microscopes/dp/B077ZN85VW/ref=sr_1_4?crid=34B809Z5PBFNN&amp;keywords=microscope%2Bstand&amp;qid=1682439177&amp;sprefix=microscope%2Bstan%2Caps%2C185&amp;sr=8-4&amp;th=1</t>
+  </si>
+  <si>
+    <t>Provided</t>
+  </si>
+  <si>
+    <t>Provided (?)</t>
+  </si>
+  <si>
+    <t>Computer monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyboard </t>
+  </si>
+  <si>
+    <t>SD Card (128GB)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/CanaKit-Raspberry-Pi-Extreme-Kit/dp/B08B6G2RFG/ref=sr_1_1?keywords=raspberry%2Bpi%2B4%2Bkit&amp;qid=1683052387&amp;sr=8-1&amp;ufe=app_do%3Aamzn1.fos.f5122f16-c3e8-4386-bf32-63e904010ad0&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4GB Version </t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4 Model B 4GB RAM</t>
+  </si>
+  <si>
+    <t>Macro Lens</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Arducam-Degree-Fisheye-Raspberry-Portable/dp/B0897QD6C2/ref=sr_1_11?crid=3KCTU1U5DY1HR&amp;keywords=raspberry+pi+lens+m12&amp;qid=1682437430&amp;sprefix=raspberry+pi+lens+m%2Caps%2C118&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>7.3 inch version</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/raspberry-pi/SC0261/12339164?src=raspberrypi</t>
+  </si>
+  <si>
+    <t>Storage Box</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08DWNS9B8/ref=sbl_dpx_home-storage-bins_B00YFSCEEI_0?th=1</t>
+  </si>
+  <si>
+    <t>Total (per kit)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +144,22 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,14 +182,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674D442-389C-7A41-8587-F18729074875}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,84 +546,205 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>169.99</v>
+      </c>
+      <c r="E2" s="3">
+        <v>169.99</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E9">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="E8">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E11">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2">
+        <v>269.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="D2:D5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{66730DD4-1C20-1646-9E78-8A9E3CF60173}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{0109239C-CECA-DB46-88C9-339F67644E05}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>